--- a/May2025.xlsx
+++ b/May2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eunchae/Desktop/Python/hongong/gopython-main/ch_02/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eunchae/Desktop/Python/hongong/ch_02/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5523F72-F08B-A348-8168-EC41B666D4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32F882-7249-C540-BD2F-50ADA425E58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="500" windowWidth="20480" windowHeight="17500" xr2:uid="{E8FF4E43-47D7-9945-9245-ABA1D48AFEDC}"/>
+    <workbookView xWindow="3540" yWindow="500" windowWidth="20480" windowHeight="17500" xr2:uid="{E8FF4E43-47D7-9945-9245-ABA1D48AFEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
-  <si>
-    <t>$  Amount</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>Merchant Name or Transaction Description</t>
   </si>
@@ -141,6 +138,30 @@
   </si>
   <si>
     <t>Tim Hortons #1757 403-246-7793 AB</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Beauty &amp; Care</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -580,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1845532C-C164-BD48-8B1A-F14C83B5A7B6}">
-  <dimension ref="B1:D37"/>
+  <dimension ref="B1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,397 +613,503 @@
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="56.83203125" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" ht="27" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>45778</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="7">
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>45778</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7">
         <v>12.52</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>45779</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7">
         <v>7.96</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>45779</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>45779</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>45780</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>45780</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>45781</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7">
         <v>21.85</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>45782</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7">
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>45784</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>45784</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7">
         <v>7.17</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>45785</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="7">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="7">
         <v>4.28</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>45786</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7">
         <v>9.67</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>45787</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="7">
         <v>4.09</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>45788</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="7">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7">
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>45788</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="7">
         <v>13.99</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>45789</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="7">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7">
         <v>5.87</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>45792</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="7">
+        <v>18</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="7">
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>45792</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="7">
+        <v>18</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="7">
         <v>4.51</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>45792</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="7">
+        <v>19</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="7">
         <v>35.81</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>45793</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="7">
         <v>41.49</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>45793</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="7">
+        <v>21</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="7">
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <v>45794</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="7">
+        <v>22</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="7">
         <v>9.43</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>45796</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="7">
+        <v>23</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="7">
         <v>10.19</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>45799</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="7">
+        <v>24</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="7">
         <v>10.49</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>45799</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="7">
+        <v>25</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="7">
         <v>22.21</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>45800</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="7">
+        <v>26</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="7">
         <v>12.46</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>45801</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="7">
+        <v>27</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="7">
         <v>19.39</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>45804</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="7">
+        <v>28</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="7">
         <v>22.21</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
         <v>45804</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="7">
+        <v>29</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="7">
         <v>5.93</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="5">
         <v>45804</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="7">
+        <v>30</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="7">
         <v>19.39</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="5">
         <v>45805</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="7">
+        <v>31</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="7">
         <v>12.01</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="5">
         <v>45807</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="7">
+        <v>32</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="7">
         <v>12.53</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="5">
         <v>45808</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="7">
+        <v>33</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="7">
         <v>12.04</v>
       </c>
     </row>
